--- a/biology/Zoologie/Ellobiidae/Ellobiidae.xlsx
+++ b/biology/Zoologie/Ellobiidae/Ellobiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ellobiidae sont une famille de petits mollusques gastéropodes terrestres appartenant à l'ordre des Ellobiida.
-Les  Ellobiidae sont une composante caractéristique des communautés de mollusques rencontrées dans les horizons intertidaux ou supratidaux des mangroves dans les différentes régions tropicales du monde, ainsi que des marais salins et des régions littorales rocheuses des rivages tempérés[4].
-Les Ellobiidae représentent l’un des différents clades de gastéropode ayant évolué depuis des formes aquatiques vers des formes terrestres. Ce passage du monde aquatique au monde terrestre se serait toutefois fait à plusieurs reprises au sein de cette famille, au Mésozoïque et au Cénozoïque[5].
+Les  Ellobiidae sont une composante caractéristique des communautés de mollusques rencontrées dans les horizons intertidaux ou supratidaux des mangroves dans les différentes régions tropicales du monde, ainsi que des marais salins et des régions littorales rocheuses des rivages tempérés.
+Les Ellobiidae représentent l’un des différents clades de gastéropode ayant évolué depuis des formes aquatiques vers des formes terrestres. Ce passage du monde aquatique au monde terrestre se serait toutefois fait à plusieurs reprises au sein de cette famille, au Mésozoïque et au Cénozoïque.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mollusques de la famille des Ellobidae se caractérisent par une coquille ovoïde à conique, à spire le plus souvent réduite par rapport au dernier tour, et à enroulement dextre, à l’exception du genre Blauneria, senestre. La coquille est lisse ou à sculpture spirale, parfois ombiliquée, couverte d’un périostracum brun. L’ouverture est allongée, arrondie à la base, et anguleuse postérieurement, à lèvre interne présentant des plis marqués. La lèvre externe est aiguë ou faiblement réfléchie, souvent dentée. La partie interne des tours de la coquille est résorbée, à l’exception des genres Pedipes et Creedonia. Le protoconque est hétérostrophique[4].
-L’animal peut se rétracter complètement dans la coquille. Les embryons sont operculés, et non pas les adultes. La tête est séparée du pied par un sillon transverse dans lequel s’ouvre une glande à mucus. L'animal possède une unique paire de tentacules, les yeux étant placés à la base de ces dernières. Le pied est long, arrondi antérieurement, effilé simple ou bifide postérieurement[4].
-La radula est longue et porte de nombreuses dents, les centrales équilatérales, à la différence des dents latérales. Ces dernières s’amenuisent pour passer abruptement ou progressivement aux dents marginales. Le pneumostome est positionné sur le flanc droit de l'animal, en position médiale par rapport à l’ouverture anale[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mollusques de la famille des Ellobidae se caractérisent par une coquille ovoïde à conique, à spire le plus souvent réduite par rapport au dernier tour, et à enroulement dextre, à l’exception du genre Blauneria, senestre. La coquille est lisse ou à sculpture spirale, parfois ombiliquée, couverte d’un périostracum brun. L’ouverture est allongée, arrondie à la base, et anguleuse postérieurement, à lèvre interne présentant des plis marqués. La lèvre externe est aiguë ou faiblement réfléchie, souvent dentée. La partie interne des tours de la coquille est résorbée, à l’exception des genres Pedipes et Creedonia. Le protoconque est hétérostrophique.
+L’animal peut se rétracter complètement dans la coquille. Les embryons sont operculés, et non pas les adultes. La tête est séparée du pied par un sillon transverse dans lequel s’ouvre une glande à mucus. L'animal possède une unique paire de tentacules, les yeux étant placés à la base de ces dernières. Le pied est long, arrondi antérieurement, effilé simple ou bifide postérieurement.
+La radula est longue et porte de nombreuses dents, les centrales équilatérales, à la différence des dents latérales. Ces dernières s’amenuisent pour passer abruptement ou progressivement aux dents marginales. Le pneumostome est positionné sur le flanc droit de l'animal, en position médiale par rapport à l’ouverture anale.
 </t>
         </is>
       </c>
@@ -546,15 +560,17 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 sous-familles sont distinguées sur la base de caractères des systèmes - reproducteurs et nerveux[6], à savoir :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 sous-familles sont distinguées sur la base de caractères des systèmes - reproducteurs et nerveux, à savoir :
 sous-famille Pythiinae,
 sous-famille Ellobiinae,
 sous-famille Carychiinae,
 sous-famille Pedipedinae,
 sous-famille Melampodinae.
-Les Ellobiidae incluent 100 à 250 espèces[5] regroupées en un peu moins d'une cinquantaine de genres qui sont, selon le World Register of Marine Species                               (20 octobre 2021)[2] :
+Les Ellobiidae incluent 100 à 250 espèces regroupées en un peu moins d'une cinquantaine de genres qui sont, selon le World Register of Marine Species                               (20 octobre 2021) :
 genre Allochroa Ancey, 1887
 genre Auriculastra E. von Martens, 1880
 genre Auriculinella Tausch, 1886 †
@@ -634,9 +650,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ellobiidae ont une distribution pan-océanique. Ils présentent toutefois trois principales zones de présence, avec une zone indo-pacifique, caractérisée par les genres Ellobium, Cassidula et Pythia, une zone caribéenne, où se rencontre principalement les espèces du genre Melampus, et dans une moindre mesure, une zone méditerranéenne, avec les genres Myosotella and Ovatella[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ellobiidae ont une distribution pan-océanique. Ils présentent toutefois trois principales zones de présence, avec une zone indo-pacifique, caractérisée par les genres Ellobium, Cassidula et Pythia, une zone caribéenne, où se rencontre principalement les espèces du genre Melampus, et dans une moindre mesure, une zone méditerranéenne, avec les genres Myosotella and Ovatella.
 </t>
         </is>
       </c>
@@ -665,9 +683,11 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ellobiidae fréquentent quatre différents types de milieu de vie[4],[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ellobiidae fréquentent quatre différents types de milieu de vie, :
 - Intertidal et fouisseur ou de fissure. Ce milieu est celui occupée par les espèces des genres Auriculinella, Blauneria, Creedonia, Laemodonta, Leuconopsis, Microtralia, Marinula et Pedipes. Les individus vivent enfouis à différentes profondeurs dans le sédiment ou sous des cailloux partiellement enfouis, des racines ou des branches jonchant le sol de la partie haute de la zone intertidale ;
 - Supratidal, préférant la frange haute des mangroves et des marais, ne s'aventurant jamais loin du niveau des plus hautes marées. Cet habitat est par exemple celui des espèces  des genres Melampus, Myosotella, Ophicardelus, Cassidula et Ellobium ;
 - côtier terrestre, représenté par les espèces du genre Pythia qui fréquentent les zones humides proches du rivage mais hors d'atteinte des plus hautes marées ;
